--- a/backtesting/long_straddle_report.xlsx
+++ b/backtesting/long_straddle_report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,109 +429,109 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>lot_size</t>
+          <t>lot size</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>lot_qty</t>
+          <t>lot qty</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>market_opening_banknifty_point</t>
+          <t>market opening banknifty point</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>entry_time</t>
+          <t>entry time</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>entry_bank_nifty_point</t>
+          <t>entry bank nifty point</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>entry_ce_price</t>
+          <t>entry ce price</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>entry_pe_price</t>
+          <t>entry pe price</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>entry_tot_price</t>
+          <t>entry tot price</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>entry_tot_value</t>
+          <t>entry tot value</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>exit_reason</t>
+          <t>exit reason</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>exit_time</t>
+          <t>exit time</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>exit_bank_nifty_point</t>
+          <t>exit bank nifty point</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>exit_ce_price</t>
+          <t>exit ce price</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>exit_pe_price</t>
+          <t>exit pe price</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>exit_tot_price</t>
+          <t>exit tot price</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>exit_tot_value</t>
+          <t>exit tot value</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>tot_price_difference_made</t>
+          <t>tot price difference made</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>basic_profit_percentage</t>
+          <t>basic profit percentage</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>tot_charges</t>
+          <t>tot charges</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>net_profit_percentage</t>
+          <t>net profit percentage</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -541,66 +541,1794 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>51672.6</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:15:00</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>51695</v>
+      </c>
+      <c r="G2" t="n">
+        <v>966.075</v>
+      </c>
+      <c r="H2" t="n">
+        <v>653.1625</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1619.2375</v>
+      </c>
+      <c r="J2" t="n">
+        <v>24288.5625</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>SL_HIT</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>09:38:00</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>not calculated :(</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>993.8375</v>
+      </c>
+      <c r="O2" t="n">
+        <v>668.8249999999999</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1662.6625</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>24939.9375</v>
+      </c>
+      <c r="R2" t="n">
+        <v>43.42499999999973</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.681817830923489</v>
+      </c>
+      <c r="T2" t="n">
+        <v>96.90001819999996</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.282864544989008</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51172.25</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>09:15:00</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>51195</v>
+      </c>
+      <c r="G3" t="n">
+        <v>885.425</v>
+      </c>
+      <c r="H3" t="n">
+        <v>789.5749999999999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1675</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25125</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>SL_HIT</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>10:52:00</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>not calculated :(</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>1072.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>636.65</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1709.15</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>25637.25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>34.15000000000009</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.038805970149259</v>
+      </c>
+      <c r="T3" t="n">
+        <v>95.88102960000001</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.657189931940304</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
+        <v/>
+      </c>
+      <c r="D4" t="n">
+        <v/>
+      </c>
+      <c r="E4" t="n">
+        <v/>
+      </c>
+      <c r="F4" t="n">
+        <v/>
+      </c>
+      <c r="G4" t="n">
+        <v/>
+      </c>
+      <c r="H4" t="n">
+        <v/>
+      </c>
+      <c r="I4" t="n">
+        <v/>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v/>
+      </c>
+      <c r="M4" t="n">
+        <v/>
+      </c>
+      <c r="N4" t="n">
+        <v/>
+      </c>
+      <c r="O4" t="n">
+        <v/>
+      </c>
+      <c r="P4" t="n">
+        <v/>
+      </c>
+      <c r="Q4" t="n">
+        <v/>
+      </c>
+      <c r="R4" t="n">
+        <v/>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v/>
+      </c>
+      <c r="D5" t="n">
+        <v/>
+      </c>
+      <c r="E5" t="n">
+        <v/>
+      </c>
+      <c r="F5" t="n">
+        <v/>
+      </c>
+      <c r="G5" t="n">
+        <v/>
+      </c>
+      <c r="H5" t="n">
+        <v/>
+      </c>
+      <c r="I5" t="n">
+        <v/>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v/>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
+      <c r="N5" t="n">
+        <v/>
+      </c>
+      <c r="O5" t="n">
+        <v/>
+      </c>
+      <c r="P5" t="n">
+        <v/>
+      </c>
+      <c r="Q5" t="n">
+        <v/>
+      </c>
+      <c r="R5" t="n">
+        <v/>
+      </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50586.25</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>09:15:00</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>50595</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1050.95</v>
+      </c>
+      <c r="H6" t="n">
+        <v>766.5625</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1817.5125</v>
+      </c>
+      <c r="J6" t="n">
+        <v>27262.6875</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>SL_HIT</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>09:20:00</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>not calculated :(</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>1009.8375</v>
+      </c>
+      <c r="O6" t="n">
+        <v>851.5749999999999</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1861.4125</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>27921.1875</v>
+      </c>
+      <c r="R6" t="n">
+        <v>43.89999999999986</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.415389165136408</v>
+      </c>
+      <c r="T6" t="n">
+        <v>96.95220359999998</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.059766838467404</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50436.9</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>09:15:00</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>50405</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1047.9625</v>
+      </c>
+      <c r="H7" t="n">
+        <v>770.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1818.0625</v>
+      </c>
+      <c r="J7" t="n">
+        <v>27270.9375</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>SL_HIT</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>10:07:00</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>not calculated :(</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>941.8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>898.65</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1840.45</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>27606.75</v>
+      </c>
+      <c r="R7" t="n">
+        <v>22.38749999999982</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.231393310185971</v>
+      </c>
+      <c r="T7" t="n">
+        <v>94.58875429999998</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.8845451158398838</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50286.2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>09:15:00</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>50205</v>
+      </c>
+      <c r="G8" t="n">
+        <v>941.85</v>
+      </c>
+      <c r="H8" t="n">
+        <v>821.8499999999999</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1763.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>26455.5</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>TIME_ELAPSED_NO_INITIAL_SL_CREATED</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>12:01:00</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Not set :(</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>789</v>
+      </c>
+      <c r="O8" t="n">
+        <v>924.2125000000001</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1713.2125</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>25698.1875</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-50.48749999999973</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-2.862590009638812</v>
+      </c>
+      <c r="T8" t="n">
+        <v>86.58241530000002</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-3.189865681238291</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50051.9</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>09:15:00</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>50005</v>
+      </c>
+      <c r="G9" t="n">
+        <v>989.675</v>
+      </c>
+      <c r="H9" t="n">
+        <v>700.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1689.775</v>
+      </c>
+      <c r="J9" t="n">
+        <v>25346.625</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>TIME_ELAPSED_NO_INITIAL_SL_CREATED</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>12:01:00</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Not set :(</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>1029.95</v>
+      </c>
+      <c r="O9" t="n">
+        <v>643.1500000000001</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1673.1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>25096.5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-16.67499999999995</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.9868177715968075</v>
+      </c>
+      <c r="T9" t="n">
+        <v>90.29719179999999</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-1.343067141286066</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-08-09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50612.1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>09:15:00</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>50605</v>
+      </c>
+      <c r="G10" t="n">
+        <v>733.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>897.6625</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1631.5625</v>
+      </c>
+      <c r="J10" t="n">
+        <v>24473.4375</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>TIME_ELAPSED_NO_INITIAL_SL_CREATED</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>12:01:00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Not set :(</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>757.7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>686.8375000000001</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1444.5375</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>21668.0625</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-187.0249999999999</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-11.46293813445699</v>
+      </c>
+      <c r="T10" t="n">
+        <v>71.58185940000001</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-11.75542609982761</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-08-10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15</v>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v/>
+      </c>
+      <c r="E11" t="n">
+        <v/>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+      <c r="G11" t="n">
+        <v/>
+      </c>
+      <c r="H11" t="n">
+        <v/>
+      </c>
+      <c r="I11" t="n">
+        <v/>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v/>
+      </c>
+      <c r="M11" t="n">
+        <v/>
+      </c>
+      <c r="N11" t="n">
+        <v/>
+      </c>
+      <c r="O11" t="n">
+        <v/>
+      </c>
+      <c r="P11" t="n">
+        <v/>
+      </c>
+      <c r="Q11" t="n">
+        <v/>
+      </c>
+      <c r="R11" t="n">
+        <v/>
+      </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+      <c r="U11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v/>
+      </c>
+      <c r="E12" t="n">
+        <v/>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+      <c r="G12" t="n">
+        <v/>
+      </c>
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="I12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v/>
+      </c>
+      <c r="M12" t="n">
+        <v/>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v/>
+      </c>
+      <c r="P12" t="n">
+        <v/>
+      </c>
+      <c r="Q12" t="n">
+        <v/>
+      </c>
+      <c r="R12" t="n">
+        <v/>
+      </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>15</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
         <v>50412.6</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>09:15:00</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F13" t="n">
         <v>50405</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G13" t="n">
         <v>706.275</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H13" t="n">
         <v>722.5375</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I13" t="n">
         <v>1428.8125</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J13" t="n">
         <v>21432.1875</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>SL_HIT</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>11:21:00</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>11:01:00</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>not calculated :(</t>
         </is>
       </c>
-      <c r="N2" t="n">
-        <v>1014.125</v>
-      </c>
-      <c r="O2" t="n">
-        <v>472.35</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1486.475</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>22297.125</v>
-      </c>
-      <c r="R2" t="n">
-        <v>57.66249999999991</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.035693976641435</v>
-      </c>
-      <c r="T2" t="n">
-        <v>52.39961989999998</v>
-      </c>
-      <c r="U2" t="n">
-        <v>3.79120367484653</v>
+      <c r="N13" t="n">
+        <v>974.55</v>
+      </c>
+      <c r="O13" t="n">
+        <v>482.4625</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1457.0125</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>21855.1875</v>
+      </c>
+      <c r="R13" t="n">
+        <v>28.19999999999982</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.973666943703237</v>
+      </c>
+      <c r="T13" t="n">
+        <v>95.22733879999997</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.529347674846524</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50395.35</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>09:15:00</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>50395</v>
+      </c>
+      <c r="G14" t="n">
+        <v>840.375</v>
+      </c>
+      <c r="H14" t="n">
+        <v>558.325</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1398.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>20980.5</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>TIME_ELAPSED_NO_INITIAL_SL_CREATED</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>12:01:00</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Not set :(</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>717.125</v>
+      </c>
+      <c r="O14" t="n">
+        <v>581.4875</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1298.6125</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>19479.1875</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-100.0875000000001</v>
+      </c>
+      <c r="S14" t="n">
+        <v>-7.155751769500257</v>
+      </c>
+      <c r="T14" t="n">
+        <v>81.13316089999998</v>
+      </c>
+      <c r="U14" t="n">
+        <v>-7.542459240246902</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>49887.15</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>09:15:00</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>49805</v>
+      </c>
+      <c r="G15" t="n">
+        <v>810.8125</v>
+      </c>
+      <c r="H15" t="n">
+        <v>565.475</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1376.2875</v>
+      </c>
+      <c r="J15" t="n">
+        <v>20644.3125</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>TIME_ELAPSED_NO_INITIAL_SL_CREATED</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>12:01:00</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Not set :(</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>704.9000000000001</v>
+      </c>
+      <c r="O15" t="n">
+        <v>557.4875</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1262.3875</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>18935.8125</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-113.8999999999999</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-8.275887123874908</v>
+      </c>
+      <c r="T15" t="n">
+        <v>79.61566440000001</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-8.661541353823228</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-08-15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v/>
+      </c>
+      <c r="D16" t="n">
+        <v/>
+      </c>
+      <c r="E16" t="n">
+        <v/>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+      <c r="G16" t="n">
+        <v/>
+      </c>
+      <c r="H16" t="n">
+        <v/>
+      </c>
+      <c r="I16" t="n">
+        <v/>
+      </c>
+      <c r="J16" t="n">
+        <v/>
+      </c>
+      <c r="K16" t="n">
+        <v/>
+      </c>
+      <c r="L16" t="n">
+        <v/>
+      </c>
+      <c r="M16" t="n">
+        <v/>
+      </c>
+      <c r="N16" t="n">
+        <v/>
+      </c>
+      <c r="O16" t="n">
+        <v/>
+      </c>
+      <c r="P16" t="n">
+        <v/>
+      </c>
+      <c r="Q16" t="n">
+        <v/>
+      </c>
+      <c r="R16" t="n">
+        <v/>
+      </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="n">
+        <v/>
+      </c>
+      <c r="U16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-08-16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50133</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>09:15:00</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>50105</v>
+      </c>
+      <c r="G17" t="n">
+        <v>667.8375</v>
+      </c>
+      <c r="H17" t="n">
+        <v>479.875</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1147.7125</v>
+      </c>
+      <c r="J17" t="n">
+        <v>17215.6875</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>TIME_ELAPSED_NO_INITIAL_SL_CREATED</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>12:01:00</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Not set :(</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>697.5875000000001</v>
+      </c>
+      <c r="O17" t="n">
+        <v>418.3375</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1115.925</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>16738.875</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-31.78749999999991</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-2.769639609222685</v>
+      </c>
+      <c r="T17" t="n">
+        <v>88.63687210000001</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-3.284500674747951</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" t="n">
+        <v/>
+      </c>
+      <c r="D18" t="n">
+        <v/>
+      </c>
+      <c r="E18" t="n">
+        <v/>
+      </c>
+      <c r="F18" t="n">
+        <v/>
+      </c>
+      <c r="G18" t="n">
+        <v/>
+      </c>
+      <c r="H18" t="n">
+        <v/>
+      </c>
+      <c r="I18" t="n">
+        <v/>
+      </c>
+      <c r="J18" t="n">
+        <v/>
+      </c>
+      <c r="K18" t="n">
+        <v/>
+      </c>
+      <c r="L18" t="n">
+        <v/>
+      </c>
+      <c r="M18" t="n">
+        <v/>
+      </c>
+      <c r="N18" t="n">
+        <v/>
+      </c>
+      <c r="O18" t="n">
+        <v/>
+      </c>
+      <c r="P18" t="n">
+        <v/>
+      </c>
+      <c r="Q18" t="n">
+        <v/>
+      </c>
+      <c r="R18" t="n">
+        <v/>
+      </c>
+      <c r="S18" t="n">
+        <v/>
+      </c>
+      <c r="T18" t="n">
+        <v/>
+      </c>
+      <c r="U18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-08-18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" t="n">
+        <v/>
+      </c>
+      <c r="D19" t="n">
+        <v/>
+      </c>
+      <c r="E19" t="n">
+        <v/>
+      </c>
+      <c r="F19" t="n">
+        <v/>
+      </c>
+      <c r="G19" t="n">
+        <v/>
+      </c>
+      <c r="H19" t="n">
+        <v/>
+      </c>
+      <c r="I19" t="n">
+        <v/>
+      </c>
+      <c r="J19" t="n">
+        <v/>
+      </c>
+      <c r="K19" t="n">
+        <v/>
+      </c>
+      <c r="L19" t="n">
+        <v/>
+      </c>
+      <c r="M19" t="n">
+        <v/>
+      </c>
+      <c r="N19" t="n">
+        <v/>
+      </c>
+      <c r="O19" t="n">
+        <v/>
+      </c>
+      <c r="P19" t="n">
+        <v/>
+      </c>
+      <c r="Q19" t="n">
+        <v/>
+      </c>
+      <c r="R19" t="n">
+        <v/>
+      </c>
+      <c r="S19" t="n">
+        <v/>
+      </c>
+      <c r="T19" t="n">
+        <v/>
+      </c>
+      <c r="U19" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>15</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>50683.55</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>09:15:00</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>50605</v>
+      </c>
+      <c r="G20" t="n">
+        <v>555.2375</v>
+      </c>
+      <c r="H20" t="n">
+        <v>433.6875</v>
+      </c>
+      <c r="I20" t="n">
+        <v>988.925</v>
+      </c>
+      <c r="J20" t="n">
+        <v>14833.875</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>TIME_ELAPSED_NO_INITIAL_SL_CREATED</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>12:01:00</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Not set :(</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>490.325</v>
+      </c>
+      <c r="O20" t="n">
+        <v>460.9125</v>
+      </c>
+      <c r="P20" t="n">
+        <v>951.2375000000001</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>14268.5625</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-37.68749999999989</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-3.810956341481901</v>
+      </c>
+      <c r="T20" t="n">
+        <v>87.9886745</v>
+      </c>
+      <c r="U20" t="n">
+        <v>-4.404116756410569</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>15</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>50417.25</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>09:16:00</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>50495</v>
+      </c>
+      <c r="G21" t="n">
+        <v>491.7625</v>
+      </c>
+      <c r="H21" t="n">
+        <v>421.6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>913.3625</v>
+      </c>
+      <c r="J21" t="n">
+        <v>13700.4375</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>SL_HIT</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>10:23:00</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>not calculated :(</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>627.9000000000001</v>
+      </c>
+      <c r="O21" t="n">
+        <v>311.8125</v>
+      </c>
+      <c r="P21" t="n">
+        <v>939.7125000000001</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>14095.6875</v>
+      </c>
+      <c r="R21" t="n">
+        <v>26.35000000000014</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.884944367652508</v>
+      </c>
+      <c r="T21" t="n">
+        <v>95.02409040000001</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.191360017517704</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-08-21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>50666.65</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>09:15:00</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>50695</v>
+      </c>
+      <c r="G22" t="n">
+        <v>475.8375</v>
+      </c>
+      <c r="H22" t="n">
+        <v>369.4875</v>
+      </c>
+      <c r="I22" t="n">
+        <v>845.3249999999999</v>
+      </c>
+      <c r="J22" t="n">
+        <v>12679.875</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>TIME_ELAPSED_NO_INITIAL_SL_CREATED</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>12:01:00</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Not set :(</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>378.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>441.9375</v>
+      </c>
+      <c r="P22" t="n">
+        <v>820.4375</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>12306.5625</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-24.88749999999993</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-2.944133912992037</v>
+      </c>
+      <c r="T22" t="n">
+        <v>89.3949337</v>
+      </c>
+      <c r="U22" t="n">
+        <v>-3.649148226618946</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>15</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>50894.8</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>09:15:00</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>50895</v>
+      </c>
+      <c r="G23" t="n">
+        <v>389.675</v>
+      </c>
+      <c r="H23" t="n">
+        <v>372.1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>761.775</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11426.625</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>TIME_ELAPSED_NO_INITIAL_SL_CREATED</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>12:01:00</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Not set :(</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>445.675</v>
+      </c>
+      <c r="O23" t="n">
+        <v>282.1375</v>
+      </c>
+      <c r="P23" t="n">
+        <v>727.8125</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>10917.1875</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-33.96249999999998</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-4.458337435594497</v>
+      </c>
+      <c r="T23" t="n">
+        <v>88.3979179</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-5.231950973275133</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-08-23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>51040.05</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>09:15:00</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>51005</v>
+      </c>
+      <c r="G24" t="n">
+        <v>336.7875</v>
+      </c>
+      <c r="H24" t="n">
+        <v>329.0875</v>
+      </c>
+      <c r="I24" t="n">
+        <v>665.875</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9988.125</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>TIME_ELAPSED_NO_INITIAL_SL_CREATED</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>12:01:00</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Not set :(</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>339.575</v>
+      </c>
+      <c r="O24" t="n">
+        <v>280.975</v>
+      </c>
+      <c r="P24" t="n">
+        <v>620.5500000000001</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>9308.250000000002</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-45.32499999999993</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-6.806833114323249</v>
+      </c>
+      <c r="T24" t="n">
+        <v>87.1495882</v>
+      </c>
+      <c r="U24" t="n">
+        <v>-7.679365128089596</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-08-24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>15</v>
+      </c>
+      <c r="C25" t="n">
+        <v/>
+      </c>
+      <c r="D25" t="n">
+        <v/>
+      </c>
+      <c r="E25" t="n">
+        <v/>
+      </c>
+      <c r="F25" t="n">
+        <v/>
+      </c>
+      <c r="G25" t="n">
+        <v/>
+      </c>
+      <c r="H25" t="n">
+        <v/>
+      </c>
+      <c r="I25" t="n">
+        <v/>
+      </c>
+      <c r="J25" t="n">
+        <v/>
+      </c>
+      <c r="K25" t="n">
+        <v/>
+      </c>
+      <c r="L25" t="n">
+        <v/>
+      </c>
+      <c r="M25" t="n">
+        <v/>
+      </c>
+      <c r="N25" t="n">
+        <v/>
+      </c>
+      <c r="O25" t="n">
+        <v/>
+      </c>
+      <c r="P25" t="n">
+        <v/>
+      </c>
+      <c r="Q25" t="n">
+        <v/>
+      </c>
+      <c r="R25" t="n">
+        <v/>
+      </c>
+      <c r="S25" t="n">
+        <v/>
+      </c>
+      <c r="T25" t="n">
+        <v/>
+      </c>
+      <c r="U25" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>15</v>
+      </c>
+      <c r="C26" t="n">
+        <v/>
+      </c>
+      <c r="D26" t="n">
+        <v/>
+      </c>
+      <c r="E26" t="n">
+        <v/>
+      </c>
+      <c r="F26" t="n">
+        <v/>
+      </c>
+      <c r="G26" t="n">
+        <v/>
+      </c>
+      <c r="H26" t="n">
+        <v/>
+      </c>
+      <c r="I26" t="n">
+        <v/>
+      </c>
+      <c r="J26" t="n">
+        <v/>
+      </c>
+      <c r="K26" t="n">
+        <v/>
+      </c>
+      <c r="L26" t="n">
+        <v/>
+      </c>
+      <c r="M26" t="n">
+        <v/>
+      </c>
+      <c r="N26" t="n">
+        <v/>
+      </c>
+      <c r="O26" t="n">
+        <v/>
+      </c>
+      <c r="P26" t="n">
+        <v/>
+      </c>
+      <c r="Q26" t="n">
+        <v/>
+      </c>
+      <c r="R26" t="n">
+        <v/>
+      </c>
+      <c r="S26" t="n">
+        <v/>
+      </c>
+      <c r="T26" t="n">
+        <v/>
+      </c>
+      <c r="U26" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
